--- a/biology/Médecine/Peptide_YY/Peptide_YY.xlsx
+++ b/biology/Médecine/Peptide_YY/Peptide_YY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le peptide YY, appelé aussi PYY-36, est une hormone qui donne une sensation de satiété pendant plusieurs heures.
 Cette molécule est libérée par la paroi gastro-intestinale, la quantité libérée dépendant de l'énergie apportée par le repas. Elle agit sur des neurones des noyaux arqués de l'hypothalamus, une structure du cerveau cible des hormones régulant la sensation de faim.
